--- a/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
+++ b/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\02-Vocabularies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PaM\04-SP-Information_Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="35" r:id="rId1"/>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="207">
   <si>
     <t>Cardinality</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>FAMILY_NAME</t>
   </si>
   <si>
-    <t>Controlled Vocabulary where the concept is termed and defined.</t>
-  </si>
-  <si>
     <t>DED CODE</t>
   </si>
   <si>
@@ -159,12 +153,6 @@
     <t>GivenNameType</t>
   </si>
   <si>
-    <t>EU POWER IR DED</t>
-  </si>
-  <si>
-    <t>EU POWER CONSTRAINTS DED</t>
-  </si>
-  <si>
     <t>FamilyNameType</t>
   </si>
   <si>
@@ -603,9 +591,6 @@
     <t>EU_RPAM_Mandate</t>
   </si>
   <si>
-    <t>CGroup</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [Name of the NatiGroup</t>
   </si>
   <si>
@@ -652,6 +637,12 @@
   </si>
   <si>
     <t>Group of evidences, e.g. Mandates and possible delegated powers</t>
+  </si>
+  <si>
+    <t>Business Rule</t>
+  </si>
+  <si>
+    <t>Compulsory use of the RPaM Identifier Policy</t>
   </si>
 </sst>
 </file>
@@ -1370,49 +1361,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hipervínculo" xfId="42"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1713,21 +1704,21 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1737,37 +1728,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.73046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73046875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="16" width="3.73046875" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.86328125" style="2" customWidth="1"/>
     <col min="19" max="19" width="65" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="45.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="17" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="2"/>
+    <col min="20" max="20" width="28.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.86328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.3984375" style="17" customWidth="1"/>
+    <col min="27" max="27" width="36.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21">
         <v>1</v>
       </c>
@@ -1846,25 +1837,25 @@
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="23"/>
       <c r="B2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1876,56 +1867,56 @@
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
@@ -1938,35 +1929,33 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="T3" s="30"/>
       <c r="U3" s="42"/>
       <c r="V3" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>193</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Z3" s="28"/>
       <c r="AA3" s="28"/>
     </row>
-    <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1983,33 +1972,33 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="6"/>
       <c r="V4" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
       <c r="Y4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2030,25 +2019,23 @@
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Z5" s="12"/>
       <c r="AA5" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2069,24 +2056,24 @@
       <c r="T6" s="14"/>
       <c r="U6" s="5"/>
       <c r="V6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2113,7 +2100,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14">
@@ -2128,17 +2115,15 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2165,7 +2150,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14">
@@ -2180,16 +2165,14 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2216,10 +2199,10 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2247,23 +2230,23 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="49">
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -2276,33 +2259,31 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T11" s="30"/>
       <c r="U11" s="42"/>
       <c r="V11" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="28" t="s">
-        <v>193</v>
-      </c>
+      <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2319,15 +2300,15 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6"/>
       <c r="V12" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
@@ -2335,13 +2316,13 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="44"/>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2362,23 +2343,21 @@
       <c r="T13" s="12"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13" s="41"/>
       <c r="X13" s="41"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2399,24 +2378,24 @@
       <c r="T14" s="14"/>
       <c r="U14" s="5"/>
       <c r="V14" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2443,7 +2422,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="14">
@@ -2458,17 +2437,15 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2495,7 +2472,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14">
@@ -2510,16 +2487,14 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2546,10 +2521,10 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2577,23 +2552,23 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="23">
         <v>3</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -2606,33 +2581,31 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T19" s="30"/>
       <c r="U19" s="42"/>
       <c r="V19" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="28" t="s">
-        <v>193</v>
-      </c>
+      <c r="Z19" s="28"/>
       <c r="AA19" s="28"/>
     </row>
-    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2649,15 +2622,15 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="6"/>
       <c r="V20" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
@@ -2665,15 +2638,15 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2694,23 +2667,21 @@
       <c r="T21" s="12"/>
       <c r="U21" s="10"/>
       <c r="V21" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W21" s="41"/>
       <c r="X21" s="41"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2731,24 +2702,24 @@
       <c r="T22" s="14"/>
       <c r="U22" s="5"/>
       <c r="V22" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2771,18 +2742,18 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2808,7 +2779,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14">
@@ -2823,18 +2794,16 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="48"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2860,7 +2829,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="14">
@@ -2875,17 +2844,15 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2911,12 +2878,12 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2939,18 +2906,18 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="47" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2976,7 +2943,7 @@
         <v>The age of the person expressed as the positive integer number of years.</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="14">
@@ -2991,18 +2958,16 @@
         <v>ccts:Quantity</v>
       </c>
       <c r="Y28" s="20"/>
-      <c r="Z28" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3028,34 +2993,32 @@
         <v>The minimum age required expressed in years.</v>
       </c>
       <c r="T29" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U29" s="43">
         <v>16</v>
       </c>
       <c r="V29" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W29" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$7</f>
         <v>AboveAgeType</v>
       </c>
       <c r="X29" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$7</f>
+        <f>'CONSTRAINTS-DED'!F7</f>
         <v>ccts:Quantity</v>
       </c>
       <c r="Y29" s="34"/>
-      <c r="Z29" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z29" s="31"/>
       <c r="AA29" s="31"/>
     </row>
-    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3081,11 +3044,11 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3112,10 +3075,10 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3143,23 +3106,23 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="23">
         <v>4</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -3172,33 +3135,31 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T33" s="30"/>
       <c r="U33" s="42"/>
       <c r="V33" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" s="26"/>
       <c r="X33" s="26"/>
       <c r="Y33" s="26"/>
-      <c r="Z33" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z33" s="28"/>
       <c r="AA33" s="28"/>
     </row>
-    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3215,15 +3176,15 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
       <c r="V34" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
@@ -3231,15 +3192,15 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="7"/>
     </row>
-    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -3260,23 +3221,23 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
       <c r="V35" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W35" s="41"/>
       <c r="X35" s="41"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3294,29 +3255,29 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T36" s="14"/>
       <c r="U36" s="5"/>
       <c r="V36" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3331,7 +3292,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R37" s="5" t="str">
         <f>'IR-DED'!$C$16</f>
@@ -3342,7 +3303,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T37" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U37" s="15"/>
       <c r="V37" s="14">
@@ -3357,17 +3318,15 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y37" s="15"/>
-      <c r="Z37" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3394,7 +3353,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14">
@@ -3409,16 +3368,16 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y38" s="15"/>
-      <c r="Z38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA38" s="5"/>
-    </row>
-    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3445,11 +3404,11 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3466,32 +3425,32 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="5"/>
       <c r="V40" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3518,10 +3477,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V41" s="17">
         <v>1</v>
@@ -3535,17 +3494,17 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y41" s="20"/>
-      <c r="Z41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA41" s="5"/>
-    </row>
-    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3572,13 +3531,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W42" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -3589,17 +3548,15 @@
         <v>ccts:URI</v>
       </c>
       <c r="Y42" s="20"/>
-      <c r="Z42" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -3626,10 +3583,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T43" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V43" s="33">
         <v>1</v>
@@ -3643,17 +3600,15 @@
         <v>skos:Concept</v>
       </c>
       <c r="Y43" s="34"/>
-      <c r="Z43" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z43" s="31"/>
       <c r="AA43" s="31"/>
     </row>
-    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
@@ -3680,13 +3635,13 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T44" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U44" s="43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="V44" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W44" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$17</f>
@@ -3697,16 +3652,14 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y44" s="34"/>
-      <c r="Z44" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z44" s="31"/>
       <c r="AA44" s="31"/>
     </row>
-    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3733,10 +3686,10 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3764,23 +3717,23 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
     </row>
-    <row r="47" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="23">
         <v>5</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -3793,33 +3746,31 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T47" s="30"/>
       <c r="U47" s="42"/>
       <c r="V47" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W47" s="26"/>
       <c r="X47" s="26"/>
       <c r="Y47" s="26"/>
-      <c r="Z47" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z47" s="28"/>
       <c r="AA47" s="28"/>
     </row>
-    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3836,15 +3787,15 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S48" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="6"/>
       <c r="V48" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W48" s="40"/>
       <c r="X48" s="40"/>
@@ -3852,15 +3803,15 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="7"/>
     </row>
-    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3881,23 +3832,21 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W49" s="41"/>
       <c r="X49" s="41"/>
       <c r="Y49" s="10"/>
-      <c r="Z49" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3918,22 +3867,22 @@
       <c r="T50" s="14"/>
       <c r="U50" s="5"/>
       <c r="V50" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="16"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -3960,7 +3909,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T51" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U51" s="15"/>
       <c r="V51" s="14">
@@ -3975,17 +3924,15 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y51" s="15"/>
-      <c r="Z51" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4012,7 +3959,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T52" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="14">
@@ -4027,16 +3974,16 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y52" s="15"/>
-      <c r="Z52" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA52" s="5"/>
-    </row>
-    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4063,11 +4010,11 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -4084,32 +4031,32 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="5"/>
       <c r="V54" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -4136,10 +4083,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U55" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V55" s="17">
         <v>1</v>
@@ -4153,17 +4100,17 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y55" s="20"/>
-      <c r="Z55" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA55" s="5"/>
-    </row>
-    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -4190,13 +4137,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U56" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="V56" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W56" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -4207,17 +4154,15 @@
         <v>ccts:URI</v>
       </c>
       <c r="Y56" s="20"/>
-      <c r="Z56" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
@@ -4244,10 +4189,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T57" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V57" s="33">
         <v>1</v>
@@ -4262,136 +4207,82 @@
       </c>
       <c r="Y57" s="34"/>
       <c r="Z57" s="31" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="AA57" s="31"/>
     </row>
-    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$17</f>
-        <v>EVIDENCE_SCHEME_VERSION</v>
-      </c>
-      <c r="R58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$17</f>
-        <v>Evidence Scheme Version</v>
-      </c>
-      <c r="S58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$17</f>
-        <v>The version identifier of the model (or template) used to express the evidence.</v>
-      </c>
-      <c r="T58" s="32" t="s">
+      <c r="C58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U58" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="V58" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="W58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$17</f>
-        <v>EvidenceSchemeVersionIdentifier</v>
-      </c>
-      <c r="X58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$17</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA58" s="31"/>
-    </row>
-    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+    </row>
+    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-    </row>
-    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-    </row>
-    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U42" r:id="rId1"/>
@@ -4409,441 +4300,441 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>86</v>
-      </c>
       <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
         <v>146</v>
       </c>
-      <c r="C19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
         <v>177</v>
       </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" t="s">
         <v>178</v>
       </c>
-      <c r="F20" t="s">
-        <v>182</v>
-      </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4858,369 +4749,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
       <c r="D4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" t="s">
-        <v>151</v>
-      </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" t="s">
         <v>166</v>
       </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>

--- a/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
+++ b/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PaM\04-SP-Information_Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\04-SP-Information_Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="35" r:id="rId1"/>
@@ -1361,49 +1361,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Hipervínculo" xfId="42"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1704,19 +1704,19 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -1730,35 +1730,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.73046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73046875" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="3.73046875" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="16" width="3.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.86328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
     <col min="19" max="19" width="65" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="45.86328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" style="17" customWidth="1"/>
-    <col min="27" max="27" width="36.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.3984375" style="2"/>
+    <col min="20" max="20" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="17" customWidth="1"/>
+    <col min="27" max="27" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21">
         <v>1</v>
       </c>
@@ -1837,7 +1838,7 @@
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="25" t="s">
         <v>1</v>
@@ -1900,7 +1901,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
@@ -1947,7 +1948,7 @@
       <c r="Z3" s="28"/>
       <c r="AA3" s="28"/>
     </row>
-    <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +1991,7 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -2068,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2118,7 +2119,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2146,8 +2147,8 @@
         <v>Family name</v>
       </c>
       <c r="S8" s="5" t="str">
-        <f>'IR-DED'!$D$7</f>
-        <v>The given name of the person.</v>
+        <f>'IR-DED'!$D$8</f>
+        <v>The family name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
         <v>199</v>
@@ -2168,7 +2169,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -2199,7 +2200,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
         <v>186</v>
@@ -2230,7 +2231,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>2</v>
       </c>
@@ -2275,7 +2276,7 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2317,7 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="9" t="s">
         <v>1</v>
@@ -2353,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -2390,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2440,7 +2441,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2468,8 +2469,8 @@
         <v>Family name</v>
       </c>
       <c r="S16" s="5" t="str">
-        <f>'IR-DED'!$D$7</f>
-        <v>The given name of the person.</v>
+        <f>'IR-DED'!$D$8</f>
+        <v>The family name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
         <v>199</v>
@@ -2490,7 +2491,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -2521,7 +2522,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
         <v>186</v>
@@ -2552,7 +2553,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>3</v>
       </c>
@@ -2597,7 +2598,7 @@
       <c r="Z19" s="28"/>
       <c r="AA19" s="28"/>
     </row>
-    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2639,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -2714,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2747,7 +2748,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2797,7 +2798,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2847,7 +2848,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2878,7 +2879,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2911,7 +2912,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2961,7 +2962,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3013,7 +3014,7 @@
       <c r="Z29" s="31"/>
       <c r="AA29" s="31"/>
     </row>
-    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3044,7 +3045,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -3075,7 +3076,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="26" t="s">
         <v>24</v>
@@ -3106,7 +3107,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>4</v>
       </c>
@@ -3151,7 +3152,7 @@
       <c r="Z33" s="28"/>
       <c r="AA33" s="28"/>
     </row>
-    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -3192,7 +3193,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="7"/>
     </row>
-    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -3272,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3321,7 +3322,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3373,7 +3374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -3404,7 +3405,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -3445,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3499,7 +3500,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3551,7 +3552,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3603,7 +3604,7 @@
       <c r="Z43" s="31"/>
       <c r="AA43" s="31"/>
     </row>
-    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3655,7 +3656,7 @@
       <c r="Z44" s="31"/>
       <c r="AA44" s="31"/>
     </row>
-    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
@@ -3686,7 +3687,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="26" t="s">
         <v>24</v>
@@ -3717,7 +3718,7 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
     </row>
-    <row r="47" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>5</v>
       </c>
@@ -3762,7 +3763,7 @@
       <c r="Z47" s="28"/>
       <c r="AA47" s="28"/>
     </row>
-    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -3803,7 +3804,7 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="7"/>
     </row>
-    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
@@ -3877,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3927,7 +3928,7 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3979,7 +3980,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
@@ -4010,7 +4011,7 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
@@ -4051,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4105,7 +4106,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4157,7 +4158,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4211,7 +4212,7 @@
       </c>
       <c r="AA57" s="31"/>
     </row>
-    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
@@ -4242,7 +4243,7 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="26" t="s">
         <v>24</v>
@@ -4273,16 +4274,16 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U42" r:id="rId1"/>
@@ -4303,24 +4304,24 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4749,30 +4750,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5108,12 +5109,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>

--- a/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
+++ b/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\02-Vocabularies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\04-SP-Information_Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="207">
   <si>
     <t>Cardinality</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>FAMILY_NAME</t>
   </si>
   <si>
-    <t>Controlled Vocabulary where the concept is termed and defined.</t>
-  </si>
-  <si>
     <t>DED CODE</t>
   </si>
   <si>
@@ -159,12 +153,6 @@
     <t>GivenNameType</t>
   </si>
   <si>
-    <t>EU POWER IR DED</t>
-  </si>
-  <si>
-    <t>EU POWER CONSTRAINTS DED</t>
-  </si>
-  <si>
     <t>FamilyNameType</t>
   </si>
   <si>
@@ -603,9 +591,6 @@
     <t>EU_RPAM_Mandate</t>
   </si>
   <si>
-    <t>CGroup</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [Name of the NatiGroup</t>
   </si>
   <si>
@@ -652,6 +637,12 @@
   </si>
   <si>
     <t>Group of evidences, e.g. Mandates and possible delegated powers</t>
+  </si>
+  <si>
+    <t>Business Rule</t>
+  </si>
+  <si>
+    <t>Compulsory use of the RPaM Identifier Policy</t>
   </si>
 </sst>
 </file>
@@ -1713,21 +1704,21 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1737,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
@@ -1749,7 +1740,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="16" width="3.7109375" style="2" hidden="1" customWidth="1"/>
@@ -1757,13 +1749,13 @@
     <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
     <col min="19" max="19" width="65" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="45.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" style="17" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -1849,22 +1841,22 @@
     <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1876,37 +1868,37 @@
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -1914,18 +1906,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
@@ -1938,35 +1930,33 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="T3" s="30"/>
       <c r="U3" s="42"/>
       <c r="V3" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="28" t="s">
-        <v>193</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Z3" s="28"/>
       <c r="AA3" s="28"/>
     </row>
     <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1983,33 +1973,33 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="6"/>
       <c r="V4" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
       <c r="Y4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="7"/>
     </row>
     <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2030,25 +2020,23 @@
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Z5" s="12"/>
       <c r="AA5" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2069,16 +2057,16 @@
       <c r="T6" s="14"/>
       <c r="U6" s="5"/>
       <c r="V6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
@@ -2086,7 +2074,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2113,7 +2101,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14">
@@ -2128,9 +2116,7 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
@@ -2138,7 +2124,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2161,11 +2147,11 @@
         <v>Family name</v>
       </c>
       <c r="S8" s="5" t="str">
-        <f>'IR-DED'!$D$7</f>
-        <v>The given name of the person.</v>
+        <f>'IR-DED'!$D$8</f>
+        <v>The family name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14">
@@ -2180,16 +2166,14 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2219,7 +2203,7 @@
     <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2252,18 +2236,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -2276,33 +2260,31 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T11" s="30"/>
       <c r="U11" s="42"/>
       <c r="V11" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="28" t="s">
-        <v>193</v>
-      </c>
+      <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2319,15 +2301,15 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6"/>
       <c r="V12" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
@@ -2338,10 +2320,10 @@
     <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2362,23 +2344,21 @@
       <c r="T13" s="12"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13" s="41"/>
       <c r="X13" s="41"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2399,16 +2379,16 @@
       <c r="T14" s="14"/>
       <c r="U14" s="5"/>
       <c r="V14" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2396,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2443,7 +2423,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="14">
@@ -2458,9 +2438,7 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
@@ -2468,7 +2446,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2491,11 +2469,11 @@
         <v>Family name</v>
       </c>
       <c r="S16" s="5" t="str">
-        <f>'IR-DED'!$D$7</f>
-        <v>The given name of the person.</v>
+        <f>'IR-DED'!$D$8</f>
+        <v>The family name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14">
@@ -2510,16 +2488,14 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
     <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2549,7 +2525,7 @@
     <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2582,18 +2558,18 @@
         <v>3</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -2606,33 +2582,31 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T19" s="30"/>
       <c r="U19" s="42"/>
       <c r="V19" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="28" t="s">
-        <v>193</v>
-      </c>
+      <c r="Z19" s="28"/>
       <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2649,15 +2623,15 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="6"/>
       <c r="V20" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
@@ -2667,13 +2641,13 @@
     </row>
     <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2694,23 +2668,21 @@
       <c r="T21" s="12"/>
       <c r="U21" s="10"/>
       <c r="V21" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W21" s="41"/>
       <c r="X21" s="41"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2731,16 +2703,16 @@
       <c r="T22" s="14"/>
       <c r="U22" s="5"/>
       <c r="V22" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2748,7 +2720,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2771,7 +2743,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -2782,7 +2754,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2808,7 +2780,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14">
@@ -2823,9 +2795,7 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2834,7 +2804,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2860,7 +2830,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="14">
@@ -2875,9 +2845,7 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2885,7 +2853,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2916,7 +2884,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2939,7 +2907,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="47" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -2950,7 +2918,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2976,7 +2944,7 @@
         <v>The age of the person expressed as the positive integer number of years.</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="14">
@@ -2991,9 +2959,7 @@
         <v>ccts:Quantity</v>
       </c>
       <c r="Y28" s="20"/>
-      <c r="Z28" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3002,7 +2968,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3028,26 +2994,24 @@
         <v>The minimum age required expressed in years.</v>
       </c>
       <c r="T29" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U29" s="43">
         <v>16</v>
       </c>
       <c r="V29" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W29" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$7</f>
         <v>AboveAgeType</v>
       </c>
       <c r="X29" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$7</f>
+        <f>'CONSTRAINTS-DED'!F7</f>
         <v>ccts:Quantity</v>
       </c>
       <c r="Y29" s="34"/>
-      <c r="Z29" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z29" s="31"/>
       <c r="AA29" s="31"/>
     </row>
     <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3055,7 +3019,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3085,7 +3049,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3115,7 +3079,7 @@
     <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3148,18 +3112,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -3172,33 +3136,31 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T33" s="30"/>
       <c r="U33" s="42"/>
       <c r="V33" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" s="26"/>
       <c r="X33" s="26"/>
       <c r="Y33" s="26"/>
-      <c r="Z33" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z33" s="28"/>
       <c r="AA33" s="28"/>
     </row>
     <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3215,15 +3177,15 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
       <c r="V34" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
@@ -3233,13 +3195,13 @@
     </row>
     <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -3260,23 +3222,23 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
       <c r="V35" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W35" s="41"/>
       <c r="X35" s="41"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3294,21 +3256,21 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T36" s="14"/>
       <c r="U36" s="5"/>
       <c r="V36" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3316,7 +3278,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3331,7 +3293,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R37" s="5" t="str">
         <f>'IR-DED'!$C$16</f>
@@ -3342,7 +3304,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T37" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U37" s="15"/>
       <c r="V37" s="14">
@@ -3357,9 +3319,7 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y37" s="15"/>
-      <c r="Z37" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3327,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3394,7 +3354,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14">
@@ -3409,16 +3369,16 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y38" s="15"/>
-      <c r="Z38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3449,7 +3409,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3466,24 +3426,24 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="5"/>
       <c r="V40" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3491,7 +3451,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3518,10 +3478,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V41" s="17">
         <v>1</v>
@@ -3535,17 +3495,17 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y41" s="20"/>
-      <c r="Z41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3572,13 +3532,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W42" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -3589,9 +3549,7 @@
         <v>ccts:URI</v>
       </c>
       <c r="Y42" s="20"/>
-      <c r="Z42" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
     <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3599,7 +3557,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -3626,10 +3584,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T43" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V43" s="33">
         <v>1</v>
@@ -3643,9 +3601,7 @@
         <v>skos:Concept</v>
       </c>
       <c r="Y43" s="34"/>
-      <c r="Z43" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z43" s="31"/>
       <c r="AA43" s="31"/>
     </row>
     <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3653,7 +3609,7 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
@@ -3680,13 +3636,13 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T44" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U44" s="43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="V44" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W44" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$17</f>
@@ -3697,16 +3653,14 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y44" s="34"/>
-      <c r="Z44" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z44" s="31"/>
       <c r="AA44" s="31"/>
     </row>
     <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3736,7 +3690,7 @@
     <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3769,18 +3723,18 @@
         <v>5</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -3793,33 +3747,31 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="T47" s="30"/>
       <c r="U47" s="42"/>
       <c r="V47" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W47" s="26"/>
       <c r="X47" s="26"/>
       <c r="Y47" s="26"/>
-      <c r="Z47" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z47" s="28"/>
       <c r="AA47" s="28"/>
     </row>
     <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3836,15 +3788,15 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S48" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="6"/>
       <c r="V48" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W48" s="40"/>
       <c r="X48" s="40"/>
@@ -3854,13 +3806,13 @@
     </row>
     <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3881,23 +3833,21 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W49" s="41"/>
       <c r="X49" s="41"/>
       <c r="Y49" s="10"/>
-      <c r="Z49" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3918,14 +3868,14 @@
       <c r="T50" s="14"/>
       <c r="U50" s="5"/>
       <c r="V50" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="16"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3933,7 +3883,7 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -3960,7 +3910,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T51" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U51" s="15"/>
       <c r="V51" s="14">
@@ -3975,9 +3925,7 @@
         <v>ccts:Text</v>
       </c>
       <c r="Y51" s="15"/>
-      <c r="Z51" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
     <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3985,7 +3933,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4012,7 +3960,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T52" s="29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="14">
@@ -4027,16 +3975,16 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y52" s="15"/>
-      <c r="Z52" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4067,7 +4015,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -4084,24 +4032,24 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="5"/>
       <c r="V54" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -4109,7 +4057,7 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -4136,10 +4084,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U55" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V55" s="17">
         <v>1</v>
@@ -4153,17 +4101,17 @@
         <v>ccts:Identifier</v>
       </c>
       <c r="Y55" s="20"/>
-      <c r="Z55" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -4190,13 +4138,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U56" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="V56" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W56" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -4207,9 +4155,7 @@
         <v>ccts:URI</v>
       </c>
       <c r="Y56" s="20"/>
-      <c r="Z56" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
     <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
@@ -4217,7 +4163,7 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
@@ -4244,10 +4190,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T57" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V57" s="33">
         <v>1</v>
@@ -4262,126 +4208,73 @@
       </c>
       <c r="Y57" s="34"/>
       <c r="Z57" s="31" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="AA57" s="31"/>
     </row>
     <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$17</f>
-        <v>EVIDENCE_SCHEME_VERSION</v>
-      </c>
-      <c r="R58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$17</f>
-        <v>Evidence Scheme Version</v>
-      </c>
-      <c r="S58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$17</f>
-        <v>The version identifier of the model (or template) used to express the evidence.</v>
-      </c>
-      <c r="T58" s="32" t="s">
+      <c r="C58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U58" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="V58" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="W58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$17</f>
-        <v>EvidenceSchemeVersionIdentifier</v>
-      </c>
-      <c r="X58" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$17</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA58" s="31"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-    </row>
-    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-    </row>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4391,7 +4284,6 @@
     <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U42" r:id="rId1"/>
@@ -4409,10 +4301,10 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -4426,33 +4318,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,16 +4352,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4477,16 +4369,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4494,22 +4386,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4517,22 +4409,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4540,22 +4432,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4563,22 +4455,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4586,22 +4478,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4609,22 +4501,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4632,25 +4524,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4658,25 +4550,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4684,22 +4576,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>86</v>
-      </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,22 +4599,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4730,22 +4622,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4753,22 +4645,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4776,25 +4668,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4802,25 +4694,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
         <v>146</v>
       </c>
-      <c r="C19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4828,22 +4720,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
         <v>177</v>
       </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" t="s">
         <v>178</v>
       </c>
-      <c r="F20" t="s">
-        <v>182</v>
-      </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4858,9 +4750,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -4875,37 +4769,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4913,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4927,13 +4821,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4941,13 +4835,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4955,25 +4849,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,22 +4875,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5004,22 +4898,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5027,22 +4921,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5050,22 +4944,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5073,22 +4967,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5096,22 +4990,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5119,22 +5013,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5142,22 +5036,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5165,28 +5059,28 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" t="s">
-        <v>151</v>
-      </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5194,25 +5088,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" t="s">
         <v>166</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
+++ b/04-SP-Information_Requirements/SP-InformationRequirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="35" r:id="rId1"/>
@@ -1730,11 +1730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,10 +1749,10 @@
     <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
     <col min="19" max="19" width="65" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="2" customWidth="1"/>
     <col min="25" max="25" width="45.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" style="17" customWidth="1"/>
     <col min="27" max="27" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -2902,7 +2902,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="17"/>
-      <c r="U27" s="14"/>
+      <c r="U27" s="5"/>
       <c r="V27" s="14"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
@@ -2996,7 +2996,7 @@
       <c r="T29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="43">
+      <c r="U29" s="32">
         <v>16</v>
       </c>
       <c r="V29" s="33" t="s">
@@ -3586,7 +3586,7 @@
       <c r="T43" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="U43" s="32" t="s">
+      <c r="U43" s="43" t="s">
         <v>188</v>
       </c>
       <c r="V43" s="33">
@@ -4192,7 +4192,7 @@
       <c r="T57" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="U57" s="32" t="s">
+      <c r="U57" s="43" t="s">
         <v>188</v>
       </c>
       <c r="V57" s="33">
@@ -4274,16 +4274,36 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U60" s="2"/>
+    </row>
+    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U61" s="2"/>
+    </row>
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U62" s="2"/>
+    </row>
+    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U63" s="2"/>
+    </row>
+    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U64" s="2"/>
+    </row>
+    <row r="65" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U65" s="2"/>
+    </row>
+    <row r="66" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U66" s="2"/>
+    </row>
+    <row r="67" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U67" s="2"/>
+    </row>
+    <row r="68" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U68" s="2"/>
+    </row>
+    <row r="69" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U69" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U42" r:id="rId1"/>
